--- a/blanded_learning/src/assets/DataCSV/Salles.xlsx
+++ b/blanded_learning/src/assets/DataCSV/Salles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ouss_ama\Desktop\ProjetBlendedLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ouss_ama\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A42CBB-EE19-42A8-9BDC-A2628A610376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DC0E69-8DDE-4957-878F-C842440807D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C3" sqref="C3:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/blanded_learning/src/assets/DataCSV/Salles.xlsx
+++ b/blanded_learning/src/assets/DataCSV/Salles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ouss_ama\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DC0E69-8DDE-4957-878F-C842440807D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712DF6BA-0750-4463-A3D8-571DF27E779E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -410,7 +410,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -424,7 +424,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -452,7 +452,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -466,7 +466,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -480,7 +480,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -508,7 +508,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -522,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -536,7 +536,7 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -564,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -592,7 +592,7 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -606,7 +606,7 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -620,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -634,7 +634,7 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -648,7 +648,7 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -662,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
